--- a/Documentation/RBLAnnualReportTemplateDetails - WIP.xlsx
+++ b/Documentation/RBLAnnualReportTemplateDetails - WIP.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="28800" windowHeight="12228"/>
   </bookViews>
   <sheets>
     <sheet name="06 Report Details Mapping (2)" sheetId="15" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'06 Report Details Mapping (2)'!$A$1:$S$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'06 Report Details Mapping (2)'!$A$1:$S$79</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="276">
   <si>
     <t>Valid From Date (PK)</t>
   </si>
@@ -215,6 +215,9 @@
     <t>Date4</t>
   </si>
   <si>
+    <t>Date5</t>
+  </si>
+  <si>
     <t>110000</t>
   </si>
   <si>
@@ -308,7 +311,7 @@
     <t>7820</t>
   </si>
   <si>
-    <t>140000-170000</t>
+    <t>170000-200000</t>
   </si>
   <si>
     <t>200000</t>
@@ -320,7 +323,7 @@
     <t>Utgående avskrivningar på byggnader</t>
   </si>
   <si>
-    <t>120000-180000</t>
+    <t>140000-210000</t>
   </si>
   <si>
     <t>210000</t>
@@ -389,7 +392,7 @@
     <t>Avgår årets försäljningar</t>
   </si>
   <si>
-    <t>200000-240000</t>
+    <t>230000-270000</t>
   </si>
   <si>
     <t>270000</t>
@@ -434,7 +437,7 @@
     <t>7830</t>
   </si>
   <si>
-    <t>250000-300000</t>
+    <t>280000-320000</t>
   </si>
   <si>
     <t>320000</t>
@@ -446,7 +449,7 @@
     <t>Utgående avskrivningar på inventarier</t>
   </si>
   <si>
-    <t>190000-300000</t>
+    <t>220000-330000</t>
   </si>
   <si>
     <t>330000</t>
@@ -482,7 +485,7 @@
     <t>1385</t>
   </si>
   <si>
-    <t>310000-340000</t>
+    <t>340000-370000</t>
   </si>
   <si>
     <t>370000</t>
@@ -600,7 +603,7 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>Verksamhet</t>
+    <t>VERKSAMHET</t>
   </si>
   <si>
     <t>510000</t>
@@ -615,10 +618,7 @@
     <t>520000</t>
   </si>
   <si>
-    <t>Total General information about the business</t>
-  </si>
-  <si>
-    <t>Summa Allmänt om verksamheten</t>
+    <t>Comments</t>
   </si>
   <si>
     <t>530000</t>
@@ -633,12 +633,6 @@
     <t>540000</t>
   </si>
   <si>
-    <t>Total Significant events during the financial year</t>
-  </si>
-  <si>
-    <t>Summa Väsentliga händelser under räkenskapsåret</t>
-  </si>
-  <si>
     <t>550000</t>
   </si>
   <si>
@@ -651,12 +645,6 @@
     <t>560000</t>
   </si>
   <si>
-    <t>Total Own shares</t>
-  </si>
-  <si>
-    <t>Summa Egna aktier</t>
-  </si>
-  <si>
     <t>570000</t>
   </si>
   <si>
@@ -675,6 +663,12 @@
     <t>Nettoomsättning, tkr</t>
   </si>
   <si>
+    <t>3000-3799</t>
+  </si>
+  <si>
+    <t>30 -79</t>
+  </si>
+  <si>
     <t>590000</t>
   </si>
   <si>
@@ -684,6 +678,12 @@
     <t>Resultat efter finansiella poster i tkr</t>
   </si>
   <si>
+    <t>3000-8499</t>
+  </si>
+  <si>
+    <t>30-84</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
@@ -696,31 +696,16 @@
     <t>610000</t>
   </si>
   <si>
-    <t>Definition of key figures:</t>
-  </si>
-  <si>
-    <t>Definition av nyckeltal:</t>
-  </si>
-  <si>
     <t>620000</t>
   </si>
   <si>
-    <t>Total Solidity</t>
-  </si>
-  <si>
-    <t>Summa Soliditet</t>
+    <t>Changes in equity</t>
+  </si>
+  <si>
+    <t>FÖRÅNDRINGAR I EGET KAPITAL</t>
   </si>
   <si>
     <t>630000</t>
-  </si>
-  <si>
-    <t>Changes in equity</t>
-  </si>
-  <si>
-    <t>Förändringar i eget kapital</t>
-  </si>
-  <si>
-    <t>640000</t>
   </si>
   <si>
     <t>This year's changes of own
@@ -730,134 +715,139 @@
     <t>Årets förändringar av eget kapital</t>
   </si>
   <si>
+    <t>Aktie-Kapital</t>
+  </si>
+  <si>
+    <t>Balanserat Resultat</t>
+  </si>
+  <si>
+    <t>Årets Resultat</t>
+  </si>
+  <si>
+    <t>640000</t>
+  </si>
+  <si>
+    <t>Amount at the beginning of the year</t>
+  </si>
+  <si>
+    <t>Belopp vid årets ingång</t>
+  </si>
+  <si>
     <t>650000</t>
   </si>
   <si>
-    <t>Amount at the beginning of the year</t>
-  </si>
-  <si>
-    <t>Belopp vid årets ingång</t>
-  </si>
-  <si>
-    <t>Total Amount at the beginning of the year</t>
-  </si>
-  <si>
-    <t>Summa Belopp vid årets ingång</t>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Utdelning</t>
   </si>
   <si>
     <t>660000</t>
   </si>
   <si>
-    <t>Disposition of the previous year
-results</t>
-  </si>
-  <si>
-    <t>Disposition av föregående års resultat</t>
+    <t>Balanced in new account</t>
+  </si>
+  <si>
+    <t>Balanseras i ny räkning</t>
   </si>
   <si>
     <t>670000</t>
   </si>
   <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>Utdelning</t>
+    <t>This year's results</t>
+  </si>
+  <si>
+    <t>Årets resultat</t>
+  </si>
+  <si>
+    <t>620000-680000</t>
   </si>
   <si>
     <t>680000</t>
   </si>
   <si>
-    <t>Balanced in new account</t>
-  </si>
-  <si>
-    <t>Balanseras i ny räkning</t>
+    <t>Amount at the end of the year</t>
+  </si>
+  <si>
+    <t>Belopp vid årets utgång</t>
   </si>
   <si>
     <t>690000</t>
   </si>
   <si>
-    <t>This year's results</t>
-  </si>
-  <si>
-    <t>Årets resultat</t>
+    <t>Proposal for allocation of profit</t>
+  </si>
+  <si>
+    <t>FÖRSLAG TILL RESULTATDISPOSITION</t>
   </si>
   <si>
     <t>700000</t>
   </si>
   <si>
-    <t>Amount at the end of the year</t>
-  </si>
-  <si>
-    <t>Belopp vid årets utgång</t>
+    <t>The board proposes that available funds</t>
+  </si>
+  <si>
+    <t>Styrelsen föreslår att till förfogande stående medel</t>
   </si>
   <si>
     <t>710000</t>
   </si>
   <si>
-    <t>Proposal for allocation of profit</t>
-  </si>
-  <si>
-    <t>Förslag till resultatdisposition</t>
+    <t>balanced result</t>
+  </si>
+  <si>
+    <t>Balanserat resultat</t>
   </si>
   <si>
     <t>720000</t>
   </si>
   <si>
-    <t>The board proposes that available funds</t>
-  </si>
-  <si>
-    <t>Styrelsen föreslår att till förfogande stående medel</t>
+    <t>the year's results</t>
+  </si>
+  <si>
+    <t>700000-730000</t>
   </si>
   <si>
     <t>730000</t>
   </si>
   <si>
-    <t>balanced result</t>
-  </si>
-  <si>
-    <t>balanserat resultat</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Totalt</t>
   </si>
   <si>
     <t>740000</t>
   </si>
   <si>
-    <t>the year's results</t>
-  </si>
-  <si>
-    <t>årets resultat</t>
+    <t>available for</t>
+  </si>
+  <si>
+    <t>Disponeras för</t>
   </si>
   <si>
     <t>750000</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Totalt</t>
+    <t>dividend</t>
   </si>
   <si>
     <t>760000</t>
   </si>
   <si>
-    <t>available for</t>
-  </si>
-  <si>
-    <t>disponeras för</t>
-  </si>
-  <si>
-    <t>dividend</t>
-  </si>
-  <si>
-    <t>utdelning</t>
-  </si>
-  <si>
     <t>transfer to balance sheet</t>
   </si>
   <si>
-    <t>överföring till balanserat resultat</t>
-  </si>
-  <si>
-    <t>800000</t>
+    <t>Överföring till balanserat resultat</t>
+  </si>
+  <si>
+    <t>740000-770000</t>
+  </si>
+  <si>
+    <t>770000</t>
+  </si>
+  <si>
+    <t>780000</t>
   </si>
 </sst>
 </file>
@@ -865,10 +855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="26">
@@ -924,58 +914,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -989,14 +927,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,15 +961,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,8 +1000,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,6 +1085,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -1119,7 +1115,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1163,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,19 +1211,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,61 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,19 +1253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,31 +1277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,15 +1294,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1331,27 +1312,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1361,7 +1325,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1396,6 +1360,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1404,10 +1383,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,143 +1412,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1581,6 +1571,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1599,21 +1595,21 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,74 +1619,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1903,10 +1905,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -1981,7 +1983,7 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2010,10 +2012,10 @@
       <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="4"/>
@@ -2022,7 +2024,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="25"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="1:19">
       <c r="A3" s="2">
@@ -2049,10 +2051,10 @@
       <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="4"/>
@@ -2061,7 +2063,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="25"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" ht="49.5" customHeight="1" spans="1:19">
       <c r="A4" s="2">
@@ -2090,8 +2092,8 @@
       <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="4"/>
@@ -2100,7 +2102,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="25"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" ht="49.5" customHeight="1" spans="1:19">
       <c r="A5" s="2">
@@ -2127,10 +2129,10 @@
       <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="4"/>
@@ -2139,7 +2141,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="25"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" ht="49.5" customHeight="1" spans="1:19">
       <c r="A6" s="2">
@@ -2166,10 +2168,10 @@
       <c r="J6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="4"/>
@@ -2178,7 +2180,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="25"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" ht="49.5" customHeight="1" spans="1:19">
       <c r="A7" s="2">
@@ -2207,10 +2209,10 @@
       <c r="J7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="4"/>
@@ -2219,7 +2221,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="25"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" ht="49.5" customHeight="1" spans="1:19">
       <c r="A8" s="2">
@@ -2248,10 +2250,10 @@
       <c r="J8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="14" t="s">
         <v>48</v>
       </c>
       <c r="M8" s="4"/>
@@ -2260,7 +2262,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="25"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" ht="49.5" customHeight="1" spans="1:19">
       <c r="A9" s="2">
@@ -2289,10 +2291,10 @@
       <c r="J9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="M9" s="4"/>
@@ -2301,7 +2303,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="25"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" ht="49.5" customHeight="1" spans="1:19">
       <c r="A10" s="2">
@@ -2340,7 +2342,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="25"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" ht="49.5" customHeight="1" spans="1:19">
       <c r="A11" s="2">
@@ -2369,10 +2371,10 @@
       <c r="J11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="13" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -2387,9 +2389,11 @@
       <c r="P11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="25"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" ht="49.5" customHeight="1" spans="1:19">
       <c r="A12" s="2">
@@ -2413,14 +2417,14 @@
         <v>26</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="J12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="K12" s="14" t="s">
         <v>67</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2428,7 +2432,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="25"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" ht="49.5" customHeight="1" spans="1:19">
       <c r="A13" s="2">
@@ -2455,19 +2459,19 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="25"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" ht="49.5" customHeight="1" spans="1:19">
       <c r="A14" s="2">
@@ -2478,10 +2482,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>22</v>
@@ -2492,19 +2496,19 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="25"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" ht="49.5" customHeight="1" spans="1:19">
       <c r="A15" s="2">
@@ -2515,10 +2519,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -2531,12 +2535,12 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -2551,12 +2555,14 @@
       <c r="P15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="25" t="s">
         <v>78</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="49.5" customHeight="1" spans="1:19">
@@ -2568,10 +2574,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>30</v>
@@ -2582,13 +2588,13 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="K16" s="14" t="s">
         <v>81</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2596,10 +2602,10 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S16" s="30" t="s">
         <v>83</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="49.5" customHeight="1" spans="1:19">
@@ -2611,10 +2617,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>49</v>
@@ -2627,13 +2633,13 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2641,7 +2647,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="25"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" ht="49.5" customHeight="1" spans="1:19">
       <c r="A18" s="2">
@@ -2652,10 +2658,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
@@ -2666,12 +2672,12 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="13" t="s">
         <v>37</v>
       </c>
       <c r="M18" s="4"/>
@@ -2680,7 +2686,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="25"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" ht="49.5" customHeight="1" spans="1:19">
       <c r="A19" s="2">
@@ -2691,10 +2697,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>30</v>
@@ -2705,13 +2711,13 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="K19" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2719,10 +2725,10 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="49.5" customHeight="1" spans="1:19">
@@ -2734,10 +2740,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>30</v>
@@ -2748,13 +2754,13 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="K20" s="14" t="s">
         <v>94</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2762,10 +2768,10 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="49.5" customHeight="1" spans="1:19">
@@ -2777,10 +2783,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>49</v>
@@ -2790,16 +2796,16 @@
         <v>32</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="K21" s="17" t="s">
         <v>99</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2807,10 +2813,10 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" ht="49.5" customHeight="1" spans="1:19">
@@ -2822,10 +2828,10 @@
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>49</v>
@@ -2835,16 +2841,16 @@
         <v>26</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="K22" s="17" t="s">
         <v>103</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2852,7 +2858,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="25"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" ht="49.5" customHeight="1" spans="1:19">
       <c r="A23" s="2">
@@ -2863,10 +2869,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>22</v>
@@ -2879,13 +2885,13 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="K23" s="13" t="s">
         <v>106</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>61</v>
@@ -2899,12 +2905,14 @@
       <c r="P23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S23" s="25" t="s">
+      <c r="Q23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="30" t="s">
         <v>108</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" ht="49.5" customHeight="1" spans="1:19">
@@ -2916,10 +2924,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -2930,13 +2938,13 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="K24" s="13" t="s">
         <v>111</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2944,7 +2952,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="25"/>
+      <c r="S24" s="29"/>
     </row>
     <row r="25" ht="49.5" customHeight="1" spans="1:19">
       <c r="A25" s="2">
@@ -2955,10 +2963,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>30</v>
@@ -2969,13 +2977,13 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="K25" s="14" t="s">
         <v>114</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2983,10 +2991,10 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S25" s="30" t="s">
         <v>116</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" ht="49.5" customHeight="1" spans="1:19">
@@ -2998,10 +3006,10 @@
         <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>30</v>
@@ -3012,13 +3020,13 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="K26" s="14" t="s">
         <v>119</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3026,7 +3034,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="25"/>
+      <c r="S26" s="29"/>
     </row>
     <row r="27" ht="49.5" customHeight="1" spans="1:19">
       <c r="A27" s="2">
@@ -3037,10 +3045,10 @@
         <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>30</v>
@@ -3051,13 +3059,13 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="K27" s="14" t="s">
         <v>122</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3065,7 +3073,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="25"/>
+      <c r="S27" s="29"/>
     </row>
     <row r="28" ht="49.5" customHeight="1" spans="1:19">
       <c r="A28" s="2">
@@ -3076,10 +3084,10 @@
         <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>49</v>
@@ -3089,16 +3097,16 @@
         <v>32</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="K28" s="17" t="s">
         <v>126</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3106,10 +3114,10 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S28" s="30" t="s">
         <v>116</v>
+      </c>
+      <c r="S28" s="34" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" ht="49.5" customHeight="1" spans="1:19">
@@ -3121,10 +3129,10 @@
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>22</v>
@@ -3135,12 +3143,12 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="13" t="s">
         <v>37</v>
       </c>
       <c r="M29" s="4"/>
@@ -3149,7 +3157,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="25"/>
+      <c r="S29" s="29"/>
     </row>
     <row r="30" ht="49.5" customHeight="1" spans="1:19">
       <c r="A30" s="2">
@@ -3160,10 +3168,10 @@
         <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>30</v>
@@ -3174,13 +3182,13 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3188,10 +3196,10 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S30" s="30" t="s">
         <v>130</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" ht="49.5" customHeight="1" spans="1:19">
@@ -3203,10 +3211,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>30</v>
@@ -3217,13 +3225,13 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="K31" s="14" t="s">
         <v>133</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3231,10 +3239,10 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S31" s="30" t="s">
         <v>130</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" ht="49.5" customHeight="1" spans="1:19">
@@ -3246,10 +3254,10 @@
         <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>30</v>
@@ -3260,13 +3268,13 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="K32" s="14" t="s">
         <v>136</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3274,10 +3282,10 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" ht="49.5" customHeight="1" spans="1:19">
@@ -3289,10 +3297,10 @@
         <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>49</v>
@@ -3302,16 +3310,16 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="K33" s="17" t="s">
         <v>141</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3319,10 +3327,10 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S33" s="30" t="s">
         <v>130</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" ht="49.5" customHeight="1" spans="1:19">
@@ -3334,10 +3342,10 @@
         <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>49</v>
@@ -3347,16 +3355,16 @@
         <v>26</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="K34" s="14" t="s">
         <v>145</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3364,7 +3372,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="25"/>
+      <c r="S34" s="29"/>
     </row>
     <row r="35" ht="49.5" customHeight="1" spans="1:19">
       <c r="A35" s="2">
@@ -3375,10 +3383,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
@@ -3391,13 +3399,13 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="K35" s="13" t="s">
         <v>148</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>61</v>
@@ -3411,9 +3419,11 @@
       <c r="P35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="R35" s="4"/>
-      <c r="S35" s="25"/>
+      <c r="S35" s="29"/>
     </row>
     <row r="36" ht="49.5" customHeight="1" spans="1:19">
       <c r="A36" s="2">
@@ -3424,10 +3434,10 @@
         <v>19</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>30</v>
@@ -3438,13 +3448,13 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="K36" s="14" t="s">
         <v>151</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3452,7 +3462,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="25"/>
+      <c r="S36" s="29"/>
     </row>
     <row r="37" ht="49.5" customHeight="1" spans="1:19">
       <c r="A37" s="2">
@@ -3463,10 +3473,10 @@
         <v>19</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>30</v>
@@ -3477,13 +3487,13 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" s="14" t="s">
         <v>81</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3491,10 +3501,10 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="S37" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="S37" s="29" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38" ht="49.5" customHeight="1" spans="1:19">
@@ -3506,10 +3516,10 @@
         <v>19</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>49</v>
@@ -3519,16 +3529,16 @@
         <v>26</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="K38" s="17" t="s">
         <v>157</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3536,10 +3546,10 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="S38" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="S38" s="29" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" ht="49.5" customHeight="1" spans="1:19">
@@ -3550,10 +3560,10 @@
         <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>49</v>
@@ -3564,13 +3574,13 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K39" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="K39" s="18" t="s">
         <v>160</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3578,7 +3588,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="25"/>
+      <c r="S39" s="29"/>
     </row>
     <row r="40" ht="46.5" customHeight="1" spans="1:19">
       <c r="A40" s="2">
@@ -3588,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>22</v>
@@ -3603,13 +3613,13 @@
         <v>26</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K40" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="K40" s="19" t="s">
         <v>163</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>61</v>
@@ -3623,9 +3633,11 @@
       <c r="P40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q40" s="4"/>
+      <c r="Q40" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="R40" s="4"/>
-      <c r="S40" s="27"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" ht="49.5" customHeight="1" spans="1:19">
       <c r="A41" s="2">
@@ -3635,10 +3647,10 @@
         <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>30</v>
@@ -3649,15 +3661,15 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K41" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="L41" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="S41" s="25"/>
+      <c r="K41" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="S41" s="29"/>
     </row>
     <row r="42" ht="49.5" customHeight="1" spans="1:19">
       <c r="A42" s="2">
@@ -3667,10 +3679,10 @@
         <v>19</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>49</v>
@@ -3683,15 +3695,15 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L42" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="S42" s="25"/>
+      <c r="L42" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="S42" s="29"/>
     </row>
     <row r="43" ht="49.5" customHeight="1" spans="1:19">
       <c r="A43" s="2">
@@ -3701,10 +3713,10 @@
         <v>19</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>30</v>
@@ -3717,17 +3729,17 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="25"/>
+      <c r="S43" s="29"/>
     </row>
     <row r="44" ht="49.5" customHeight="1" spans="1:19">
       <c r="A44" s="2">
@@ -3737,10 +3749,10 @@
         <v>19</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>22</v>
@@ -3753,13 +3765,13 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K44" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="K44" s="13" t="s">
         <v>172</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>61</v>
@@ -3773,9 +3785,11 @@
       <c r="P44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="R44" s="4"/>
-      <c r="S44" s="25"/>
+      <c r="S44" s="29"/>
     </row>
     <row r="45" ht="49.5" customHeight="1" spans="1:19">
       <c r="A45" s="2">
@@ -3785,10 +3799,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>30</v>
@@ -3799,21 +3813,21 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="28"/>
+        <v>176</v>
+      </c>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="32"/>
     </row>
     <row r="46" ht="49.5" customHeight="1" spans="1:19">
       <c r="A46" s="2">
@@ -3823,10 +3837,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>30</v>
@@ -3837,21 +3851,21 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="28"/>
+        <v>179</v>
+      </c>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="32"/>
     </row>
     <row r="47" ht="49.5" customHeight="1" spans="1:19">
       <c r="A47" s="2">
@@ -3861,10 +3875,10 @@
         <v>19</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>30</v>
@@ -3875,21 +3889,21 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="28"/>
+        <v>182</v>
+      </c>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="32"/>
     </row>
     <row r="48" ht="49.5" customHeight="1" spans="1:19">
       <c r="A48" s="2">
@@ -3899,10 +3913,10 @@
         <v>19</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>49</v>
@@ -3915,21 +3929,21 @@
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="L48" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="28"/>
+      <c r="L48" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="32"/>
     </row>
     <row r="49" ht="49.5" customHeight="1" spans="1:19">
       <c r="A49" s="2">
@@ -3939,10 +3953,10 @@
         <v>19</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>22</v>
@@ -3953,21 +3967,21 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K49" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="K49" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="28"/>
+      <c r="L49" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="32"/>
     </row>
     <row r="50" ht="49.5" customHeight="1" spans="1:19">
       <c r="A50" s="2">
@@ -3977,10 +3991,10 @@
         <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>30</v>
@@ -3993,825 +4007,1049 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="28"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:12">
+        <v>190</v>
+      </c>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="32"/>
+    </row>
+    <row r="51" ht="49.5" customHeight="1" spans="1:19">
       <c r="A51" s="2">
         <v>43831</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="I51" s="26"/>
+      <c r="J51" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L51" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="32"/>
+    </row>
+    <row r="52" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A52" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K51" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:12">
-      <c r="A52" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K52" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="L52" s="23" t="s">
+      <c r="K52" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:12">
+      <c r="L52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="32"/>
+    </row>
+    <row r="53" customFormat="1" ht="49.5" customHeight="1" spans="1:19">
       <c r="A53" s="2">
         <v>43831</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G53" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H53" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K53" s="3"/>
-      <c r="L53" s="23"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:12">
+      <c r="L53" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="32"/>
+    </row>
+    <row r="54" ht="49.5" customHeight="1" spans="1:19">
       <c r="A54" s="2">
         <v>43831</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="32"/>
+    </row>
+    <row r="55" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A55" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L54" s="23" t="s">
+      <c r="I55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="27" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:12">
-      <c r="A55" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="32"/>
+    </row>
+    <row r="56" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A56" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:12">
-      <c r="A56" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="I56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="32"/>
+    </row>
+    <row r="57" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A57" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:12">
-      <c r="A57" s="2"/>
-      <c r="C57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>50</v>
+      <c r="G57" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57" t="s">
-        <v>204</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:12">
+      <c r="I57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="32"/>
+    </row>
+    <row r="58" ht="49.5" customHeight="1" spans="1:19">
       <c r="A58" s="2">
         <v>43831</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L58" s="23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:12">
+      <c r="K58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="23"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" ht="49.5" customHeight="1" spans="1:19">
       <c r="A59" s="2">
         <v>43831</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:12">
-      <c r="A60" s="2"/>
-      <c r="C60" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="S59" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A60" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:12">
+      <c r="I60" s="3"/>
+      <c r="J60" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="S60" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" ht="49.5" customHeight="1" spans="1:19">
       <c r="A61" s="2">
         <v>43831</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I61" s="3"/>
       <c r="J61" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:12">
+        <v>221</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" ht="49.5" customHeight="1" spans="1:19">
       <c r="A62" s="2">
         <v>43831</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G62" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H62" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:12">
+        <v>224</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" ht="49.5" customHeight="1" spans="1:19">
       <c r="A63" s="2">
         <v>43831</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:12">
+        <v>191</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="26"/>
+      <c r="J63" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" ht="49.5" customHeight="1" spans="1:19">
       <c r="A64" s="2">
         <v>43831</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:12">
+        <v>230</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O64" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" ht="49.5" customHeight="1" spans="1:19">
       <c r="A65" s="2">
         <v>43831</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I65" s="3"/>
       <c r="J65" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:12">
+        <v>234</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" ht="49.5" customHeight="1" spans="1:19">
       <c r="A66" s="2">
         <v>43831</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I66" s="3"/>
       <c r="J66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K66" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L66" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:12">
-      <c r="A67" s="2"/>
-      <c r="C67" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+    </row>
+    <row r="67" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A67" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+    </row>
+    <row r="68" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A68" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="32"/>
+    </row>
+    <row r="69" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A69" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:12">
-      <c r="A68" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="32"/>
+    </row>
+    <row r="70" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A70" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="G70" s="10"/>
+      <c r="H70" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K68" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:12">
-      <c r="A69" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:12">
-      <c r="A70" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:12">
-      <c r="A71" s="2"/>
-      <c r="C71" s="4"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="32"/>
+    </row>
+    <row r="71" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A71" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="K71" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:12">
+        <v>255</v>
+      </c>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="32"/>
+    </row>
+    <row r="72" ht="49.5" customHeight="1" spans="1:19">
       <c r="A72" s="2">
         <v>43831</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="I72" s="3"/>
       <c r="J72" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K72" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:12">
+        <v>256</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="32">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="73" ht="49.5" customHeight="1" spans="1:19">
       <c r="A73" s="2">
         <v>43831</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I73" s="3"/>
       <c r="J73" s="4" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K73" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L73" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:12">
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="32">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="74" ht="49.5" customHeight="1" spans="1:19">
       <c r="A74" s="2">
         <v>43831</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="32"/>
+    </row>
+    <row r="75" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A75" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="32"/>
+    </row>
+    <row r="76" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A76" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:12">
-      <c r="A75" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="32"/>
+    </row>
+    <row r="77" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A77" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:12">
-      <c r="A76" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="32">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="78" ht="49.5" customHeight="1" spans="1:19">
+      <c r="A78" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G76"/>
-      <c r="H76" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:12">
-      <c r="A77" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K77" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:12">
-      <c r="A78" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="I78" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="J78" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K78" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="L78" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:12">
+        <v>274</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="32"/>
+    </row>
+    <row r="79" ht="49.5" customHeight="1" spans="1:19">
       <c r="A79" s="2">
         <v>43831</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G79" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H79" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:12">
-      <c r="A80" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:12">
-      <c r="A81" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:12">
-      <c r="A82" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="L82" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:12">
-      <c r="A83" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J83" s="4">
-        <v>770000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="L83" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:12">
-      <c r="A84" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J84" s="4">
-        <v>780000</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:12">
-      <c r="A85" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J85" s="4">
-        <v>790000</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:12">
-      <c r="A86" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S50">
+  <autoFilter ref="A1:S79">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
